--- a/report_folder/report_2_fin.xlsx
+++ b/report_folder/report_2_fin.xlsx
@@ -4413,7 +4413,7 @@
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>
@@ -4428,7 +4428,7 @@
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="35" t="n"/>
@@ -4443,7 +4443,7 @@
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>

--- a/report_folder/report_2_fin.xlsx
+++ b/report_folder/report_2_fin.xlsx
@@ -4288,7 +4288,7 @@
         </is>
       </c>
       <c r="C17" s="13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F17" s="14" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="C18" s="13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D18" s="14" t="inlineStr">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F19" s="14" t="inlineStr">
@@ -4341,7 +4341,7 @@
         </is>
       </c>
       <c r="G19" s="35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -4362,16 +4362,16 @@
       </c>
       <c r="D20" s="25" t="inlineStr">
         <is>
-          <t>59.3% der Karten</t>
+          <t>53.6% der Karten</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" s="14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C21" s="36" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>
@@ -4428,7 +4428,7 @@
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="35" t="n"/>
@@ -4443,7 +4443,7 @@
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>
@@ -4458,7 +4458,7 @@
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D30" s="14" t="n"/>
       <c r="E30" s="35" t="n"/>
@@ -4473,7 +4473,7 @@
         </is>
       </c>
       <c r="C31" s="14" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D31" s="14" t="n"/>
       <c r="E31" s="35" t="n"/>
@@ -4508,11 +4508,11 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(44.4%)</t>
+          <t>(46.4%)</t>
         </is>
       </c>
     </row>
@@ -4665,7 +4665,7 @@
         </is>
       </c>
       <c r="C48" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -4676,11 +4676,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Maria Lütticke</t>
+          <t>Christoph Netsch</t>
         </is>
       </c>
       <c r="C49" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -4691,11 +4691,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Thaddäus Kreisig</t>
+          <t>Maria Lütticke</t>
         </is>
       </c>
       <c r="C50" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" s="14" t="inlineStr">
         <is>
@@ -4711,11 +4711,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Christoph Netsch</t>
+          <t>Thaddäus Kreisig</t>
         </is>
       </c>
       <c r="C51" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" s="14" t="n">
         <v>0</v>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Valentin Buchenroth</t>
+          <t>Anna Hessabi</t>
         </is>
       </c>
       <c r="C52" s="14" t="n">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="G60" s="35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
@@ -4835,7 +4835,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>

--- a/report_folder/report_2_fin.xlsx
+++ b/report_folder/report_2_fin.xlsx
@@ -4288,7 +4288,7 @@
         </is>
       </c>
       <c r="C17" s="13" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F17" s="14" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="C18" s="13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D18" s="14" t="inlineStr">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F19" s="14" t="inlineStr">
@@ -4341,7 +4341,7 @@
         </is>
       </c>
       <c r="G19" s="35" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -4362,7 +4362,7 @@
       </c>
       <c r="D20" s="25" t="inlineStr">
         <is>
-          <t>53.6% der Karten</t>
+          <t>62.5% der Karten</t>
         </is>
       </c>
     </row>
@@ -4371,7 +4371,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="14" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C21" s="36" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>
@@ -4428,7 +4428,7 @@
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="35" t="n"/>
@@ -4443,7 +4443,7 @@
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>
@@ -4458,7 +4458,7 @@
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D30" s="14" t="n"/>
       <c r="E30" s="35" t="n"/>
@@ -4473,7 +4473,7 @@
         </is>
       </c>
       <c r="C31" s="14" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D31" s="14" t="n"/>
       <c r="E31" s="35" t="n"/>
@@ -4508,11 +4508,11 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(46.4%)</t>
+          <t>(45.8%)</t>
         </is>
       </c>
     </row>
@@ -4528,7 +4528,7 @@
         </is>
       </c>
       <c r="C35" s="14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="C36" s="14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -4558,7 +4558,7 @@
         </is>
       </c>
       <c r="C37" s="14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -4573,7 +4573,7 @@
         </is>
       </c>
       <c r="C38" s="14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="C39" s="14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="F39" s="14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -4606,7 +4606,7 @@
         </is>
       </c>
       <c r="F40" s="14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -4616,7 +4616,7 @@
         </is>
       </c>
       <c r="F41" s="14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="F42" s="14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -4636,7 +4636,7 @@
         </is>
       </c>
       <c r="F43" s="14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="46">
@@ -4661,11 +4661,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Nils</t>
+          <t>Christoph Netsch</t>
         </is>
       </c>
       <c r="C48" s="14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -4676,11 +4676,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Christoph Netsch</t>
+          <t>Maria Lütticke</t>
         </is>
       </c>
       <c r="C49" s="14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -4691,11 +4691,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Maria Lütticke</t>
+          <t>Nils</t>
         </is>
       </c>
       <c r="C50" s="14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50" s="14" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         </is>
       </c>
       <c r="C51" s="14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" s="14" t="n">
         <v>0</v>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="G60" s="35" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -4835,7 +4835,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G73" s="35" t="n">
         <v>0</v>

--- a/report_folder/report_2_fin.xlsx
+++ b/report_folder/report_2_fin.xlsx
@@ -4288,7 +4288,7 @@
         </is>
       </c>
       <c r="C17" s="13" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F17" s="14" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="G17" s="35" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -4307,7 +4307,7 @@
       </c>
       <c r="C18" s="13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D18" s="14" t="inlineStr">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F19" s="14" t="inlineStr">
@@ -4341,7 +4341,7 @@
         </is>
       </c>
       <c r="G19" s="35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -4362,16 +4362,16 @@
       </c>
       <c r="D20" s="25" t="inlineStr">
         <is>
-          <t>62.5% der Karten</t>
+          <t>75.0% der Karten</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" s="14" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C21" s="36" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>204</v>
+        <v>293</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>
@@ -4424,11 +4424,11 @@
       <c r="A28" s="14" t="n"/>
       <c r="B28" s="14" t="inlineStr">
         <is>
-          <t>Steuererklärung 2018/19</t>
+          <t>GnuCash: Mobiltätspauschale</t>
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>131</v>
+        <v>220</v>
       </c>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="35" t="n"/>
@@ -4439,11 +4439,11 @@
       <c r="A29" s="14" t="n"/>
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>GnuCash: Mobiltätspauschale</t>
+          <t>ALTERNAID Buchungen umverteilen</t>
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>
@@ -4454,11 +4454,11 @@
       <c r="A30" s="14" t="n"/>
       <c r="B30" s="14" t="inlineStr">
         <is>
-          <t>Prozess Stiftungsantrag designen</t>
+          <t>Teamvorstellung für Gruppentreffen vorbereiten 💩</t>
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="D30" s="14" t="n"/>
       <c r="E30" s="35" t="n"/>
@@ -4469,11 +4469,11 @@
       <c r="A31" s="14" t="n"/>
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>ALTERNAID Buchungen umverteilen</t>
+          <t>Recherche: Sicherung Drive mit FS 💩</t>
         </is>
       </c>
       <c r="C31" s="14" t="n">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="D31" s="14" t="n"/>
       <c r="E31" s="35" t="n"/>
@@ -4508,11 +4508,11 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(45.8%)</t>
+          <t>(30.0%)</t>
         </is>
       </c>
     </row>
@@ -4528,7 +4528,7 @@
         </is>
       </c>
       <c r="C35" s="14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="C36" s="14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -4573,7 +4573,7 @@
         </is>
       </c>
       <c r="C38" s="14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -4584,7 +4584,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Valentin Buchenroth</t>
+          <t>Lukas Tacke</t>
         </is>
       </c>
       <c r="C39" s="14" t="n">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="F39" s="14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
@@ -4606,7 +4606,7 @@
         </is>
       </c>
       <c r="F40" s="14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -4626,13 +4626,13 @@
         </is>
       </c>
       <c r="F42" s="14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="inlineStr">
         <is>
-          <t>Valentin Buchenroth</t>
+          <t>Lukas Tacke</t>
         </is>
       </c>
       <c r="F43" s="14" t="n">
@@ -4659,13 +4659,8 @@
           <t>1.</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Christoph Netsch</t>
-        </is>
-      </c>
       <c r="C48" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -4674,13 +4669,8 @@
           <t>2.</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Maria Lütticke</t>
-        </is>
-      </c>
       <c r="C49" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -4689,13 +4679,8 @@
           <t>3.</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Nils</t>
-        </is>
-      </c>
       <c r="C50" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" s="14" t="inlineStr">
         <is>
@@ -4709,13 +4694,8 @@
           <t>4.</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Thaddäus Kreisig</t>
-        </is>
-      </c>
       <c r="C51" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="14" t="n">
         <v>0</v>
@@ -4727,13 +4707,8 @@
           <t>5.</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Anna Hessabi</t>
-        </is>
-      </c>
       <c r="C52" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="14" t="n">
         <v>0</v>
@@ -4776,7 +4751,7 @@
         </is>
       </c>
       <c r="G60" s="35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -4835,7 +4810,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -4843,7 +4818,7 @@
         </is>
       </c>
       <c r="G70" s="35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -4853,11 +4828,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Nils</t>
+          <t>Christoph Netsch</t>
         </is>
       </c>
       <c r="G71" s="35" t="n">
@@ -4874,8 +4849,13 @@
         <f>B70-B71-B73</f>
         <v/>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Nils</t>
+        </is>
+      </c>
       <c r="G72" s="35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -4885,7 +4865,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G73" s="35" t="n">
         <v>0</v>
